--- a/2016_dengue_extracted.xlsx
+++ b/2016_dengue_extracted.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DD105-B89A-CE4B-A992-4F9ED42EA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="498" windowWidth="23262" windowHeight="12462"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -40,18 +39,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -290,12 +280,21 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -359,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -381,6 +380,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,9 +441,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,31 +686,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.5859375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.5859375" customWidth="1"/>
+    <col min="4" max="4" width="9.8203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.8203125" customWidth="1"/>
+    <col min="7" max="7" width="9.8203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
-    <col min="13" max="13" width="7.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.8203125" customWidth="1"/>
+    <col min="10" max="10" width="9.8203125" customWidth="1"/>
+    <col min="11" max="11" width="7.5859375" customWidth="1"/>
+    <col min="12" max="12" width="8.41015625" customWidth="1"/>
+    <col min="13" max="13" width="7.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -725,31 +729,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5">
         <v>460</v>
@@ -788,9 +792,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5">
         <v>12</v>
@@ -829,9 +833,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>2149</v>
@@ -870,9 +874,9 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5">
         <v>35</v>
@@ -911,9 +915,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5">
         <v>103</v>
@@ -952,9 +956,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>54</v>
@@ -993,9 +997,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>26</v>
@@ -1034,9 +1038,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>74</v>
@@ -1075,9 +1079,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5">
         <v>53</v>
@@ -1116,9 +1120,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>80</v>
@@ -1157,9 +1161,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>40</v>
@@ -1198,9 +1202,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5">
         <v>219</v>
@@ -1239,9 +1243,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5">
         <v>27</v>
@@ -1280,9 +1284,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5">
         <v>54</v>
@@ -1321,9 +1325,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <v>38</v>
@@ -1362,9 +1366,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5">
         <v>40</v>
@@ -1403,9 +1407,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5">
         <v>90</v>
@@ -1444,9 +1448,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5">
         <v>39</v>
@@ -1485,9 +1489,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5">
         <v>23</v>
@@ -1526,9 +1530,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
         <v>35</v>
@@ -1567,9 +1571,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5">
         <v>22</v>
@@ -1608,9 +1612,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5">
         <v>80</v>
@@ -1649,9 +1653,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5">
         <v>16</v>
@@ -1690,9 +1694,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5">
         <v>54</v>
@@ -1731,9 +1735,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="5">
         <v>26</v>
@@ -1772,9 +1776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5">
         <v>11</v>
@@ -1813,9 +1817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5">
         <v>213</v>
@@ -1854,9 +1858,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5">
         <v>10</v>
@@ -1895,9 +1899,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5">
         <v>184</v>
@@ -1936,9 +1940,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5">
         <v>126</v>
@@ -1977,9 +1981,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5">
         <v>265</v>
@@ -2018,9 +2022,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -2059,9 +2063,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="5">
         <v>107</v>
@@ -2100,9 +2104,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" s="5">
         <v>15</v>
@@ -2141,9 +2145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5">
         <v>17</v>
@@ -2182,9 +2186,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5">
         <v>154</v>
@@ -2223,9 +2227,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="5">
         <v>77</v>
@@ -2264,9 +2268,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5">
         <v>87</v>
@@ -2305,9 +2309,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="5">
         <v>73</v>
@@ -2346,9 +2350,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="5">
         <v>50</v>
@@ -2387,9 +2391,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5">
         <v>41</v>
@@ -2428,9 +2432,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" s="5">
         <v>8</v>
@@ -2469,9 +2473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5">
         <v>17</v>
@@ -2510,9 +2514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B45" s="5">
         <v>41</v>
@@ -2551,9 +2555,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5">
         <v>42</v>
@@ -2592,9 +2596,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B47" s="5">
         <v>92</v>
@@ -2633,9 +2637,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" s="5">
         <v>12</v>
@@ -2674,9 +2678,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5">
         <v>67</v>
@@ -2715,9 +2719,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5">
         <v>46</v>
@@ -2756,9 +2760,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="5">
         <v>23</v>
@@ -2797,9 +2801,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52" s="5">
         <v>13</v>
@@ -2838,9 +2842,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53" s="5">
         <v>94</v>
@@ -2879,9 +2883,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" s="5">
         <v>147</v>
@@ -2920,9 +2924,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B55" s="5">
         <v>118</v>
@@ -2961,9 +2965,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56" s="5">
         <v>47</v>
@@ -3002,9 +3006,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5">
         <v>7</v>
@@ -3043,9 +3047,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58" s="5">
         <v>276</v>
@@ -3084,9 +3088,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B59" s="5">
         <v>153</v>
@@ -3125,9 +3129,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="5">
         <v>21</v>
@@ -3166,9 +3170,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B61" s="5">
         <v>49</v>
@@ -3207,9 +3211,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" s="5">
         <v>21</v>
@@ -3248,9 +3252,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="5">
         <v>21</v>
@@ -3289,9 +3293,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B64" s="5">
         <v>1</v>
@@ -3330,9 +3334,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B65" s="5">
         <v>217</v>
@@ -3371,9 +3375,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B66" s="5">
         <v>43</v>
@@ -3412,9 +3416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B67" s="5">
         <v>44</v>
@@ -3453,9 +3457,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B68" s="5">
         <v>44</v>
@@ -3494,7 +3498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
@@ -3535,9 +3539,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" s="5">
         <v>52</v>
@@ -3576,9 +3580,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B71" s="5">
         <v>35</v>
@@ -3617,9 +3621,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B72" s="5">
         <v>26</v>
@@ -3658,9 +3662,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="5">
         <v>165</v>
@@ -3699,9 +3703,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B74" s="5">
         <v>12</v>
@@ -3740,9 +3744,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B75" s="5">
         <v>40</v>
@@ -3781,9 +3785,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B76" s="5">
         <v>13</v>
@@ -3822,9 +3826,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B77" s="5">
         <v>28</v>
@@ -3863,9 +3867,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B78" s="5">
         <v>228</v>
@@ -3905,7 +3909,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M78">
+  <sortState ref="A3:M78">
     <sortCondition ref="A3:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
